--- a/Compare.xlsx
+++ b/Compare.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yuen Yuen\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\OperatingSystem-7064\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="14">
   <si>
     <t>total_wait_0</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t>priority</t>
+  </si>
+  <si>
+    <t>shorter</t>
   </si>
 </sst>
 </file>
@@ -412,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="B23" sqref="B23:F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -598,140 +601,140 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="4" customFormat="1">
-      <c r="B8" s="5" t="s">
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1">
+        <v>7688</v>
+      </c>
+      <c r="C6" s="1">
+        <v>9994</v>
+      </c>
+      <c r="D6" s="1">
+        <v>17682</v>
+      </c>
+      <c r="E6" s="1">
+        <v>223</v>
+      </c>
+      <c r="F6" s="1">
+        <v>130</v>
+      </c>
+      <c r="G6" s="6">
+        <f>B$2-B6</f>
+        <v>5284</v>
+      </c>
+      <c r="H6" s="6">
+        <f t="shared" ref="H6" si="7">C$2-C6</f>
+        <v>612</v>
+      </c>
+      <c r="I6" s="6">
+        <f>D$2-D6</f>
+        <v>5896</v>
+      </c>
+      <c r="J6" s="6">
+        <f t="shared" ref="J6" si="8">E$2-E6</f>
+        <v>43</v>
+      </c>
+      <c r="K6" s="6">
+        <f t="shared" ref="K6" si="9">F$2-F6</f>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="4" customFormat="1">
+      <c r="B9" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C9" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D9" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E9" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F9" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="1">
-        <v>13661</v>
-      </c>
-      <c r="C9" s="1">
-        <v>14023</v>
-      </c>
-      <c r="D9" s="1">
-        <v>27684</v>
-      </c>
-      <c r="E9" s="1">
-        <v>292</v>
-      </c>
-      <c r="F9" s="1">
-        <v>201</v>
-      </c>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B10" s="1">
-        <v>10956</v>
+        <v>13661</v>
       </c>
       <c r="C10" s="1">
-        <v>11370</v>
+        <v>14023</v>
       </c>
       <c r="D10" s="1">
-        <v>22326</v>
+        <v>27684</v>
       </c>
       <c r="E10" s="1">
-        <v>342</v>
+        <v>292</v>
       </c>
       <c r="F10" s="1">
-        <v>161</v>
-      </c>
-      <c r="G10" s="6">
-        <f>B$9-B10</f>
-        <v>2705</v>
-      </c>
-      <c r="H10" s="6">
-        <f>C$9-C10</f>
-        <v>2653</v>
-      </c>
-      <c r="I10" s="6">
-        <f>D$9-D10</f>
-        <v>5358</v>
-      </c>
-      <c r="J10" s="6">
-        <f>E$9-E10</f>
-        <v>-50</v>
-      </c>
-      <c r="K10" s="6">
-        <f>F$9-F10</f>
-        <v>40</v>
+        <v>201</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B11" s="1">
-        <v>11623</v>
+        <v>10956</v>
       </c>
       <c r="C11" s="1">
-        <v>11116</v>
+        <v>11370</v>
       </c>
       <c r="D11" s="1">
-        <v>22739</v>
+        <v>22326</v>
       </c>
       <c r="E11" s="1">
-        <v>212</v>
+        <v>342</v>
       </c>
       <c r="F11" s="1">
         <v>161</v>
       </c>
       <c r="G11" s="6">
-        <f>B$9-B11</f>
-        <v>2038</v>
+        <f t="shared" ref="G11:K13" si="10">B$10-B11</f>
+        <v>2705</v>
       </c>
       <c r="H11" s="6">
-        <f>C$9-C11</f>
-        <v>2907</v>
+        <f t="shared" si="10"/>
+        <v>2653</v>
       </c>
       <c r="I11" s="6">
-        <f>D$9-D11</f>
-        <v>4945</v>
+        <f t="shared" si="10"/>
+        <v>5358</v>
       </c>
       <c r="J11" s="6">
-        <f>E$9-E11</f>
-        <v>80</v>
+        <f t="shared" si="10"/>
+        <v>-50</v>
       </c>
       <c r="K11" s="6">
-        <f>F$9-F11</f>
+        <f t="shared" si="10"/>
         <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B12" s="1">
-        <v>8988</v>
+        <v>11623</v>
       </c>
       <c r="C12" s="1">
-        <v>13209</v>
+        <v>11116</v>
       </c>
       <c r="D12" s="1">
-        <v>22197</v>
+        <v>22739</v>
       </c>
       <c r="E12" s="1">
         <v>212</v>
@@ -740,186 +743,306 @@
         <v>161</v>
       </c>
       <c r="G12" s="6">
-        <f>B$9-B12</f>
+        <f t="shared" si="10"/>
+        <v>2038</v>
+      </c>
+      <c r="H12" s="6">
+        <f t="shared" si="10"/>
+        <v>2907</v>
+      </c>
+      <c r="I12" s="6">
+        <f t="shared" si="10"/>
+        <v>4945</v>
+      </c>
+      <c r="J12" s="6">
+        <f t="shared" si="10"/>
+        <v>80</v>
+      </c>
+      <c r="K12" s="6">
+        <f t="shared" si="10"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>8988</v>
+      </c>
+      <c r="C13" s="1">
+        <v>13209</v>
+      </c>
+      <c r="D13" s="1">
+        <v>22197</v>
+      </c>
+      <c r="E13" s="1">
+        <v>212</v>
+      </c>
+      <c r="F13" s="1">
+        <v>161</v>
+      </c>
+      <c r="G13" s="6">
+        <f t="shared" si="10"/>
         <v>4673</v>
       </c>
-      <c r="H12" s="6">
-        <f>C$9-C12</f>
+      <c r="H13" s="6">
+        <f t="shared" si="10"/>
         <v>814</v>
       </c>
-      <c r="I12" s="6">
-        <f>D$9-D12</f>
+      <c r="I13" s="6">
+        <f t="shared" si="10"/>
         <v>5487</v>
       </c>
-      <c r="J12" s="6">
-        <f>E$9-E12</f>
+      <c r="J13" s="6">
+        <f t="shared" si="10"/>
         <v>80</v>
       </c>
-      <c r="K12" s="6">
-        <f>F$9-F12</f>
+      <c r="K13" s="6">
+        <f t="shared" si="10"/>
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="4" customFormat="1">
-      <c r="B15" s="5" t="s">
+    <row r="14" spans="1:11">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>9163</v>
+      </c>
+      <c r="C14" s="1">
+        <v>11315</v>
+      </c>
+      <c r="D14" s="1">
+        <v>20478</v>
+      </c>
+      <c r="E14" s="1">
+        <v>212</v>
+      </c>
+      <c r="F14" s="1">
+        <v>148</v>
+      </c>
+      <c r="G14" s="6">
+        <f t="shared" ref="G14" si="11">B$10-B14</f>
+        <v>4498</v>
+      </c>
+      <c r="H14" s="6">
+        <f t="shared" ref="H14" si="12">C$10-C14</f>
+        <v>2708</v>
+      </c>
+      <c r="I14" s="6">
+        <f t="shared" ref="I14" si="13">D$10-D14</f>
+        <v>7206</v>
+      </c>
+      <c r="J14" s="6">
+        <f t="shared" ref="J14" si="14">E$10-E14</f>
+        <v>80</v>
+      </c>
+      <c r="K14" s="6">
+        <f t="shared" ref="K14" si="15">F$10-F14</f>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" s="4" customFormat="1">
+      <c r="B17" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C17" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D17" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E17" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F17" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="1">
-        <v>22084</v>
-      </c>
-      <c r="C16" s="1">
-        <v>16943</v>
-      </c>
-      <c r="D16" s="1">
-        <v>39027</v>
-      </c>
-      <c r="E16" s="1">
-        <v>354</v>
-      </c>
-      <c r="F16" s="1">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="1">
-        <v>18471</v>
-      </c>
-      <c r="C17" s="1">
-        <v>13003</v>
-      </c>
-      <c r="D17" s="1">
-        <v>31474</v>
-      </c>
-      <c r="E17" s="1">
-        <v>382</v>
-      </c>
-      <c r="F17" s="1">
-        <v>179</v>
-      </c>
-      <c r="G17" s="6">
-        <f>B$16-B17</f>
-        <v>3613</v>
-      </c>
-      <c r="H17" s="6">
-        <f t="shared" ref="H17:K17" si="7">C$16-C17</f>
-        <v>3940</v>
-      </c>
-      <c r="I17" s="6">
-        <f t="shared" si="7"/>
-        <v>7553</v>
-      </c>
-      <c r="J17" s="6">
-        <f t="shared" si="7"/>
-        <v>-28</v>
-      </c>
-      <c r="K17" s="6">
-        <f t="shared" si="7"/>
-        <v>46</v>
-      </c>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B18" s="1">
-        <v>18830</v>
+        <v>22084</v>
       </c>
       <c r="C18" s="1">
-        <v>12618</v>
+        <v>16943</v>
       </c>
       <c r="D18" s="1">
-        <v>31448</v>
+        <v>39027</v>
       </c>
       <c r="E18" s="1">
-        <v>233</v>
+        <v>354</v>
       </c>
       <c r="F18" s="1">
-        <v>179</v>
-      </c>
-      <c r="G18" s="6">
-        <f>B$16-B18</f>
-        <v>3254</v>
-      </c>
-      <c r="H18" s="6">
-        <f t="shared" ref="H18" si="8">C$16-C18</f>
-        <v>4325</v>
-      </c>
-      <c r="I18" s="6">
-        <f t="shared" ref="I18" si="9">D$16-D18</f>
-        <v>7579</v>
-      </c>
-      <c r="J18" s="6">
-        <f t="shared" ref="J18" si="10">E$16-E18</f>
-        <v>121</v>
-      </c>
-      <c r="K18" s="6">
-        <f t="shared" ref="K18" si="11">F$16-F18</f>
-        <v>46</v>
+        <v>225</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="1">
+        <v>18471</v>
+      </c>
+      <c r="C19" s="1">
+        <v>13003</v>
+      </c>
+      <c r="D19" s="1">
+        <v>31474</v>
+      </c>
+      <c r="E19" s="1">
+        <v>382</v>
+      </c>
+      <c r="F19" s="1">
+        <v>179</v>
+      </c>
+      <c r="G19" s="6">
+        <f>B$18-B19</f>
+        <v>3613</v>
+      </c>
+      <c r="H19" s="6">
+        <f t="shared" ref="H19:K19" si="16">C$18-C19</f>
+        <v>3940</v>
+      </c>
+      <c r="I19" s="6">
+        <f t="shared" si="16"/>
+        <v>7553</v>
+      </c>
+      <c r="J19" s="6">
+        <f t="shared" si="16"/>
+        <v>-28</v>
+      </c>
+      <c r="K19" s="6">
+        <f t="shared" si="16"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="1">
+        <v>18830</v>
+      </c>
+      <c r="C20" s="1">
+        <v>12618</v>
+      </c>
+      <c r="D20" s="1">
+        <v>31448</v>
+      </c>
+      <c r="E20" s="1">
+        <v>233</v>
+      </c>
+      <c r="F20" s="1">
+        <v>179</v>
+      </c>
+      <c r="G20" s="6">
+        <f>B$18-B20</f>
+        <v>3254</v>
+      </c>
+      <c r="H20" s="6">
+        <f t="shared" ref="H20" si="17">C$18-C20</f>
+        <v>4325</v>
+      </c>
+      <c r="I20" s="6">
+        <f t="shared" ref="I20" si="18">D$18-D20</f>
+        <v>7579</v>
+      </c>
+      <c r="J20" s="6">
+        <f t="shared" ref="J20" si="19">E$18-E20</f>
+        <v>121</v>
+      </c>
+      <c r="K20" s="6">
+        <f t="shared" ref="K20" si="20">F$18-F20</f>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B21" s="1">
         <v>14479</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C21" s="1">
         <v>16894</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D21" s="1">
         <v>31373</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E21" s="1">
         <v>233</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F21" s="1">
         <v>177</v>
       </c>
-      <c r="G19" s="6">
-        <f>B$16-B19</f>
+      <c r="G21" s="6">
+        <f>B$18-B21</f>
         <v>7605</v>
       </c>
-      <c r="H19" s="6">
-        <f t="shared" ref="H19" si="12">C$16-C19</f>
+      <c r="H21" s="6">
+        <f t="shared" ref="H21" si="21">C$18-C21</f>
         <v>49</v>
       </c>
-      <c r="I19" s="6">
-        <f t="shared" ref="I19" si="13">D$16-D19</f>
+      <c r="I21" s="6">
+        <f t="shared" ref="I21" si="22">D$18-D21</f>
         <v>7654</v>
       </c>
-      <c r="J19" s="6">
-        <f t="shared" ref="J19" si="14">E$16-E19</f>
+      <c r="J21" s="6">
+        <f t="shared" ref="J21" si="23">E$18-E21</f>
         <v>121</v>
       </c>
-      <c r="K19" s="6">
-        <f t="shared" ref="K19" si="15">F$16-F19</f>
+      <c r="K21" s="6">
+        <f t="shared" ref="K21" si="24">F$18-F21</f>
         <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="1">
+        <v>14035</v>
+      </c>
+      <c r="C22" s="1">
+        <v>14500</v>
+      </c>
+      <c r="D22" s="1">
+        <v>28535</v>
+      </c>
+      <c r="E22" s="1">
+        <v>233</v>
+      </c>
+      <c r="F22" s="1">
+        <v>156</v>
+      </c>
+      <c r="G22" s="6">
+        <f>B$18-B22</f>
+        <v>8049</v>
+      </c>
+      <c r="H22" s="6">
+        <f t="shared" ref="H22" si="25">C$18-C22</f>
+        <v>2443</v>
+      </c>
+      <c r="I22" s="6">
+        <f t="shared" ref="I22" si="26">D$18-D22</f>
+        <v>10492</v>
+      </c>
+      <c r="J22" s="6">
+        <f t="shared" ref="J22" si="27">E$18-E22</f>
+        <v>121</v>
+      </c>
+      <c r="K22" s="6">
+        <f t="shared" ref="K22" si="28">F$18-F22</f>
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/Compare.xlsx
+++ b/Compare.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="11550"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="11550" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Dev" sheetId="1" r:id="rId1"/>
+    <sheet name="Test" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="16">
   <si>
     <t>total_wait_0</t>
   </si>
@@ -66,6 +67,12 @@
   </si>
   <si>
     <t>shorter</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>wait_1-0</t>
   </si>
 </sst>
 </file>
@@ -117,7 +124,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -135,6 +142,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -417,7 +433,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B23" sqref="B23:F23"/>
     </sheetView>
   </sheetViews>
@@ -1049,4 +1065,591 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="5" width="12.28515625" style="1" customWidth="1"/>
+    <col min="6" max="7" width="9.140625" style="1"/>
+    <col min="8" max="8" width="10" style="1" customWidth="1"/>
+    <col min="9" max="11" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="4" customFormat="1">
+      <c r="A1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="5">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1">
+        <v>12455</v>
+      </c>
+      <c r="B3" s="1">
+        <v>13178</v>
+      </c>
+      <c r="C3" s="1">
+        <v>25633</v>
+      </c>
+      <c r="D3" s="1">
+        <v>296</v>
+      </c>
+      <c r="E3" s="1">
+        <v>186</v>
+      </c>
+      <c r="H3" s="9">
+        <f>(B3-A3)/B3</f>
+        <v>5.4864167551980571E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1">
+        <v>7888</v>
+      </c>
+      <c r="B4" s="1">
+        <v>10756</v>
+      </c>
+      <c r="C4" s="1">
+        <v>18644</v>
+      </c>
+      <c r="D4" s="1">
+        <v>238</v>
+      </c>
+      <c r="E4" s="1">
+        <v>130</v>
+      </c>
+      <c r="F4" s="9">
+        <f>(A3-A4)/A3</f>
+        <v>0.36668004817342431</v>
+      </c>
+      <c r="G4" s="9">
+        <f t="shared" ref="G4" si="0">(B3-B4)/B3</f>
+        <v>0.18379116709667628</v>
+      </c>
+      <c r="H4" s="9">
+        <f>(B4-A4)/B4</f>
+        <v>0.26664187430271474</v>
+      </c>
+      <c r="I4" s="9">
+        <f>(C3-C4)/C3</f>
+        <v>0.27265634143486911</v>
+      </c>
+      <c r="J4" s="9">
+        <f>(D3-D4)/D3</f>
+        <v>0.19594594594594594</v>
+      </c>
+      <c r="K4" s="9">
+        <f>(E3-E4)/E3</f>
+        <v>0.30107526881720431</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+    </row>
+    <row r="6" spans="1:11" s="4" customFormat="1">
+      <c r="A6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="5">
+        <v>2</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1">
+        <v>12722</v>
+      </c>
+      <c r="B8" s="1">
+        <v>12842</v>
+      </c>
+      <c r="C8" s="1">
+        <v>25564</v>
+      </c>
+      <c r="D8" s="1">
+        <v>293</v>
+      </c>
+      <c r="E8" s="1">
+        <v>184</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9">
+        <f t="shared" ref="H5:H24" si="1">(B8-A8)/B8</f>
+        <v>9.3443388880236726E-3</v>
+      </c>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1">
+        <v>7836</v>
+      </c>
+      <c r="B9" s="1">
+        <v>11192</v>
+      </c>
+      <c r="C9" s="1">
+        <v>19028</v>
+      </c>
+      <c r="D9" s="1">
+        <v>245</v>
+      </c>
+      <c r="E9" s="1">
+        <v>129</v>
+      </c>
+      <c r="F9" s="9">
+        <f t="shared" ref="F9:F24" si="2">(A8-A9)/A8</f>
+        <v>0.38405911020279832</v>
+      </c>
+      <c r="G9" s="9">
+        <f t="shared" ref="G9:G24" si="3">(B8-B9)/B8</f>
+        <v>0.12848465971032549</v>
+      </c>
+      <c r="H9" s="9">
+        <f t="shared" si="1"/>
+        <v>0.29985704074338815</v>
+      </c>
+      <c r="I9" s="9">
+        <f>(C8-C9)/C8</f>
+        <v>0.2556720388045689</v>
+      </c>
+      <c r="J9" s="9">
+        <f>(D8-D9)/D8</f>
+        <v>0.16382252559726962</v>
+      </c>
+      <c r="K9" s="9">
+        <f>(E8-E9)/E8</f>
+        <v>0.29891304347826086</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+    </row>
+    <row r="11" spans="1:11" s="4" customFormat="1">
+      <c r="A11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="5">
+        <v>3</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="1">
+        <v>14668</v>
+      </c>
+      <c r="B13" s="1">
+        <v>16526</v>
+      </c>
+      <c r="C13" s="1">
+        <v>31194</v>
+      </c>
+      <c r="D13" s="1">
+        <v>316</v>
+      </c>
+      <c r="E13" s="1">
+        <v>205</v>
+      </c>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="1">
+        <v>9134</v>
+      </c>
+      <c r="B14" s="1">
+        <v>15197</v>
+      </c>
+      <c r="C14" s="1">
+        <v>24331</v>
+      </c>
+      <c r="D14" s="1">
+        <v>211</v>
+      </c>
+      <c r="E14" s="1">
+        <v>146</v>
+      </c>
+      <c r="F14" s="9">
+        <f t="shared" si="2"/>
+        <v>0.3772838832833379</v>
+      </c>
+      <c r="G14" s="9">
+        <f t="shared" si="3"/>
+        <v>8.0418734115938514E-2</v>
+      </c>
+      <c r="H14" s="9">
+        <f t="shared" si="1"/>
+        <v>0.39896032111600976</v>
+      </c>
+      <c r="I14" s="9">
+        <f>(C13-C14)/C13</f>
+        <v>0.22001025838302238</v>
+      </c>
+      <c r="J14" s="9">
+        <f>(D13-D14)/D13</f>
+        <v>0.33227848101265822</v>
+      </c>
+      <c r="K14" s="9">
+        <f>(E13-E14)/E13</f>
+        <v>0.28780487804878047</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+    </row>
+    <row r="16" spans="1:11" s="4" customFormat="1">
+      <c r="A16" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="5">
+        <v>4</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="1">
+        <v>13961</v>
+      </c>
+      <c r="B18" s="1">
+        <v>12632</v>
+      </c>
+      <c r="C18" s="1">
+        <v>26593</v>
+      </c>
+      <c r="D18" s="1">
+        <v>286</v>
+      </c>
+      <c r="E18" s="1">
+        <v>194</v>
+      </c>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9">
+        <f t="shared" si="1"/>
+        <v>-0.10520899303356555</v>
+      </c>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="1">
+        <v>8462</v>
+      </c>
+      <c r="B19" s="1">
+        <v>11259</v>
+      </c>
+      <c r="C19" s="1">
+        <v>19721</v>
+      </c>
+      <c r="D19" s="1">
+        <v>220</v>
+      </c>
+      <c r="E19" s="1">
+        <v>142</v>
+      </c>
+      <c r="F19" s="9">
+        <f t="shared" si="2"/>
+        <v>0.39388295967337583</v>
+      </c>
+      <c r="G19" s="9">
+        <f t="shared" si="3"/>
+        <v>0.10869221025965801</v>
+      </c>
+      <c r="H19" s="9">
+        <f t="shared" si="1"/>
+        <v>0.24842348343547385</v>
+      </c>
+      <c r="I19" s="9">
+        <f>(C18-C19)/C18</f>
+        <v>0.25841386831120972</v>
+      </c>
+      <c r="J19" s="9">
+        <f>(D18-D19)/D18</f>
+        <v>0.23076923076923078</v>
+      </c>
+      <c r="K19" s="9">
+        <f>(E18-E19)/E18</f>
+        <v>0.26804123711340205</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+    </row>
+    <row r="21" spans="1:11" s="4" customFormat="1">
+      <c r="A21" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="5">
+        <v>5</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="1">
+        <v>16870</v>
+      </c>
+      <c r="B23" s="1">
+        <v>17109</v>
+      </c>
+      <c r="C23" s="1">
+        <v>33979</v>
+      </c>
+      <c r="D23" s="1">
+        <v>309</v>
+      </c>
+      <c r="E23" s="1">
+        <v>213</v>
+      </c>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9">
+        <f t="shared" si="1"/>
+        <v>1.3969255947162312E-2</v>
+      </c>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="1">
+        <v>9530</v>
+      </c>
+      <c r="B24" s="1">
+        <v>16348</v>
+      </c>
+      <c r="C24" s="1">
+        <v>25878</v>
+      </c>
+      <c r="D24" s="1">
+        <v>208</v>
+      </c>
+      <c r="E24" s="1">
+        <v>151</v>
+      </c>
+      <c r="F24" s="9">
+        <f t="shared" si="2"/>
+        <v>0.43509187907528157</v>
+      </c>
+      <c r="G24" s="9">
+        <f t="shared" si="3"/>
+        <v>4.4479513706236484E-2</v>
+      </c>
+      <c r="H24" s="9">
+        <f t="shared" si="1"/>
+        <v>0.41705407389283095</v>
+      </c>
+      <c r="I24" s="9">
+        <f>(C23-C24)/C23</f>
+        <v>0.23841196032843814</v>
+      </c>
+      <c r="J24" s="9">
+        <f>(D23-D24)/D23</f>
+        <v>0.32686084142394822</v>
+      </c>
+      <c r="K24" s="9">
+        <f>(E23-E24)/E23</f>
+        <v>0.29107981220657275</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>